--- a/data/trans_camb/P16-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>19.3538468571915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24.04764216761872</v>
+        <v>24.04764216761873</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>18.6552929018617</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.536164276957663</v>
+        <v>9.076263924251656</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.08336044297601</v>
+        <v>10.93931464004807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.98057397733818</v>
+        <v>15.86650884930366</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.17057527528389</v>
+        <v>10.55822356529689</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.411404380591112</v>
+        <v>2.054968688820217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.510829854439231</v>
+        <v>6.595405952153312</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.82124715568702</v>
+        <v>11.4985906938272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.295366393085075</v>
+        <v>9.303098252954637</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.15627800153943</v>
+        <v>14.17989177996623</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>24.89572226933317</v>
+        <v>25.21568995990076</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>27.52784682125795</v>
+        <v>27.28268365254847</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32.51665997555608</v>
+        <v>32.38322668120849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.80511128343698</v>
+        <v>26.67363890320082</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.23113042588157</v>
+        <v>19.06693957875724</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.35969250790046</v>
+        <v>22.1201131835278</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.7749571570628</v>
+        <v>23.73244928639401</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.9797821498456</v>
+        <v>21.2969920472102</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>25.59360554874342</v>
+        <v>25.03746713478293</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4891041985405885</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6077242853047359</v>
+        <v>0.6077242853047361</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3165376779905054</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2019296840477409</v>
+        <v>0.2041412229714037</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2498202923159494</v>
+        <v>0.2550554678767857</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3564542674000607</v>
+        <v>0.3621021387946246</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1606012578017328</v>
+        <v>0.1632770922732571</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03242354977439728</v>
+        <v>0.03169466647106636</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1024823811232901</v>
+        <v>0.1052356561652739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2337002028893613</v>
+        <v>0.2323545802145349</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.180587389509</v>
+        <v>0.176585900957619</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2652297263455932</v>
+        <v>0.2676168621997614</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7074970068880383</v>
+        <v>0.7075848557435723</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7738027022087918</v>
+        <v>0.7762086535113926</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9322556773883476</v>
+        <v>0.9404535576276523</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5018999554526261</v>
+        <v>0.5058624247868737</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3336324314274846</v>
+        <v>0.3507463202721838</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3984497818324304</v>
+        <v>0.4205906231307034</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5300248256139648</v>
+        <v>0.5171190877533444</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4625846214888304</v>
+        <v>0.4613502398803697</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5614636264118201</v>
+        <v>0.5506501230319235</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.22709312416589</v>
+        <v>6.069118563002752</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.786791435340134</v>
+        <v>3.252808128548161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.179732072193457</v>
+        <v>4.970963891981851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.353092218665648</v>
+        <v>6.603763185272942</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.767311546454552</v>
+        <v>2.594614427469719</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.261291014885747</v>
+        <v>-1.229649729121156</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.618047120025746</v>
+        <v>8.85388781945657</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.803291584800064</v>
+        <v>4.930532024383577</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.664429095095808</v>
+        <v>3.404912541541894</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.7947177431916</v>
+        <v>18.71854879982517</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.16351305707695</v>
+        <v>16.01351430587933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.19258352517555</v>
+        <v>18.48163907169341</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.92748230221354</v>
+        <v>18.77332541904332</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.58945958381265</v>
+        <v>14.65752693069524</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.79865574411881</v>
+        <v>10.59651217365442</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.4630631486794</v>
+        <v>17.5469111101222</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.75862291444693</v>
+        <v>14.05753111469444</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>12.75787237372025</v>
+        <v>13.00386262707703</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1477734946340206</v>
+        <v>0.1417227730491186</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09484812584448121</v>
+        <v>0.0781304164692895</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.09702292297904763</v>
+        <v>0.1169591596535524</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1202677342408136</v>
+        <v>0.1083209875104467</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04488701923670551</v>
+        <v>0.03817787223708834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.01906326589316107</v>
+        <v>-0.02034187935298434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1699774974465313</v>
+        <v>0.1779740833611886</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09317637256390308</v>
+        <v>0.09753827680105404</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.07441316431502694</v>
+        <v>0.06650302878997887</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5348007779256423</v>
+        <v>0.5427750672746692</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4615834001336064</v>
+        <v>0.4581303417770997</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5342639924607888</v>
+        <v>0.5223606078160351</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3439722564116635</v>
+        <v>0.343239821408955</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2632295518729477</v>
+        <v>0.2609885284205393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1978991318386259</v>
+        <v>0.1934253163755596</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3816164373126753</v>
+        <v>0.3893027339447175</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2977811272351966</v>
+        <v>0.3049723383350947</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.276515636840068</v>
+        <v>0.2800745925681364</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>4.325132389619002</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.670919710443103</v>
+        <v>8.670919710443092</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>16.24718430213233</v>
@@ -1092,7 +1092,7 @@
         <v>9.330571388829616</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>16.06345016060211</v>
+        <v>16.06345016060209</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.467248300698666</v>
+        <v>10.3506400793888</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.350758818969754</v>
+        <v>6.945570206636405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.16211738988587</v>
+        <v>15.77677185012186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.116310883976662</v>
+        <v>7.690165398371931</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.341749097399012</v>
+        <v>-2.706957304183955</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.006125792235275</v>
+        <v>2.459443535178457</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.63107845849503</v>
+        <v>10.8003599911393</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.750325262122742</v>
+        <v>3.560744775469406</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>11.16753727607814</v>
+        <v>10.85573153389505</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>25.03511927961789</v>
+        <v>25.73215333838524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.23330550908275</v>
+        <v>21.8811124992714</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30.72763892777678</v>
+        <v>31.17780534607587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.50682443661887</v>
+        <v>21.75582660744492</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.14503334972937</v>
+        <v>12.38386662111129</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.78158084900831</v>
+        <v>15.37966311924146</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>21.63686325201238</v>
+        <v>21.38543069290371</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.1177941503869</v>
+        <v>14.13876034060516</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.39117649471713</v>
+        <v>21.445779350663</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.07032511052283408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1409860628625167</v>
+        <v>0.1409860628625165</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.3311980322048044</v>
@@ -1197,7 +1197,7 @@
         <v>0.1902032269629171</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3274526210004973</v>
+        <v>0.3274526210004971</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2309362830753128</v>
+        <v>0.2640300110567507</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1684898932332587</v>
+        <v>0.1710314536363881</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3965384534431011</v>
+        <v>0.3826329505644747</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1106870605986794</v>
+        <v>0.1134661516982521</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.05022512714026153</v>
+        <v>-0.04274323010088737</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03105048936627615</v>
+        <v>0.03792722547888797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2052729943940403</v>
+        <v>0.207966584345787</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07081737205484492</v>
+        <v>0.06979283824257443</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2154397828473712</v>
+        <v>0.208779768738206</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7840286785877938</v>
+        <v>0.8127106509141084</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6620179757313785</v>
+        <v>0.6879376335949333</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9678658220035997</v>
+        <v>0.9666374239248503</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3707882905327058</v>
+        <v>0.3688233989395581</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1932334208051971</v>
+        <v>0.2109398469323721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2737146074611868</v>
+        <v>0.273592377454516</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4722484647246386</v>
+        <v>0.4626906828963075</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3213206412318165</v>
+        <v>0.3024487626914715</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.462160534164983</v>
+        <v>0.4591975934003993</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>21.11367149650978</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.51917183581655</v>
+        <v>14.51917183581654</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>16.71751302627625</v>
@@ -1297,7 +1297,7 @@
         <v>16.79045187910906</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.736876457186646</v>
+        <v>6.736876457186658</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.92695853005225</v>
@@ -1306,7 +1306,7 @@
         <v>18.95042034130042</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.78042284439465</v>
+        <v>10.78042284439464</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.403292850162181</v>
+        <v>1.162915227426519</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.86727227249657</v>
+        <v>14.4331252902935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.749958131196683</v>
+        <v>5.331749841399464</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.795555873125855</v>
+        <v>10.12218083518217</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>10.34956333920919</v>
+        <v>10.25967109389025</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.249631408584545</v>
+        <v>-0.3132809687196819</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.212048695988186</v>
+        <v>7.757071540325025</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>13.39810427678425</v>
+        <v>13.75645059415672</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.438428473215524</v>
+        <v>4.907798004809774</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.21601188539547</v>
+        <v>16.38982032424162</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>27.84699446815669</v>
+        <v>28.74641573123615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22.60141242185772</v>
+        <v>23.1211109071261</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.0632976038352</v>
+        <v>23.1652185921409</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>23.14239715784652</v>
+        <v>23.77416949988374</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.01724034020327</v>
+        <v>13.16996533417212</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>17.9487898642623</v>
+        <v>17.88444172981498</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>23.86674197359939</v>
+        <v>23.64602938329316</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.97538875280934</v>
+        <v>16.4340530497685</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5289702822448015</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3637553243746469</v>
+        <v>0.3637553243746466</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2894935339311004</v>
@@ -1402,7 +1402,7 @@
         <v>0.290756600167942</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1166610230949292</v>
+        <v>0.1166610230949294</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2638844842932509</v>
@@ -1411,7 +1411,7 @@
         <v>0.3868444295909859</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2200661753607996</v>
+        <v>0.2200661753607994</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03154925510953881</v>
+        <v>0.02815552195158616</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3153818797259378</v>
+        <v>0.3264631073822448</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1097917925092807</v>
+        <v>0.1213489919309019</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1582371633920405</v>
+        <v>0.1666627801197006</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1679202958974066</v>
+        <v>0.1637261027215539</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004331430953977838</v>
+        <v>-0.004743690439118612</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1444131869951275</v>
+        <v>0.1511015336903934</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2575957643034827</v>
+        <v>0.2661908542040827</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1072581106687972</v>
+        <v>0.09536908989616333</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4449004306582559</v>
+        <v>0.4660957769285461</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7719885412897578</v>
+        <v>0.7836840787412147</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6126929669601986</v>
+        <v>0.6412663416370323</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4267732964503035</v>
+        <v>0.424700211277716</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4333753695431053</v>
+        <v>0.4427770657459778</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.240329044538376</v>
+        <v>0.240200670298312</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3886149854804172</v>
+        <v>0.3900933897462034</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5169884984970216</v>
+        <v>0.5087820089677813</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3490197160939682</v>
+        <v>0.3509776073818884</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.464965884592651</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.950256062556154</v>
+        <v>-0.9502560625561762</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>12.15139779031498</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.241674751390307</v>
+        <v>-2.85998146823873</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-13.93348269971692</v>
+        <v>-13.30998271798437</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.96554362355127</v>
+        <v>-9.563036140995749</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.726897572979288</v>
+        <v>9.155698312415534</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.699269532707617</v>
+        <v>-8.060849192799898</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.08311130609218</v>
+        <v>-9.465809908638846</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.914191798103956</v>
+        <v>5.026699716251472</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.447115121916633</v>
+        <v>-8.15464119710504</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.191783171230158</v>
+        <v>-7.759650180464648</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.52279817307049</v>
+        <v>16.00612281383498</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.360828568669071</v>
+        <v>6.364637862820449</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.466759943482995</v>
+        <v>8.296918261721929</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25.76797509277676</v>
+        <v>26.26796205865771</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.39583506588442</v>
+        <v>11.17968434180416</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.944378106059524</v>
+        <v>7.348379932728887</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.22140660644148</v>
+        <v>18.79709434180703</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.019374853735127</v>
+        <v>5.373350813591635</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.449010203668513</v>
+        <v>5.064758626207206</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.0231170822203278</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.01499498913900222</v>
+        <v>-0.01499498913900257</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2194476699403621</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.08070220903672419</v>
+        <v>-0.05477024210130271</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.26914353913446</v>
+        <v>-0.2555747866624865</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2129636219616117</v>
+        <v>-0.183114659846215</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1266204681246846</v>
+        <v>0.1291851467450356</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1148602585559634</v>
+        <v>-0.1160007839354036</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1312953243128171</v>
+        <v>-0.1341130655228333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08981298791079295</v>
+        <v>0.08231681498405836</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1279068109984238</v>
+        <v>-0.1384906327904227</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1210145535766731</v>
+        <v>-0.1257648222698166</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.373644082296155</v>
+        <v>0.3801929323445346</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1252020876246598</v>
+        <v>0.1556224376118696</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2068067949668922</v>
+        <v>0.2009933536476697</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4481121382164657</v>
+        <v>0.4554670362789789</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1821654294819273</v>
+        <v>0.1918209001264307</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1376624314481118</v>
+        <v>0.1254668784340389</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3541908831014663</v>
+        <v>0.3674009682550333</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.115260670657619</v>
+        <v>0.101425011452253</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1068235196396973</v>
+        <v>0.0987005440774377</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>5.725996805681</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17.04596434273743</v>
+        <v>17.04596434273745</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>13.42532543883076</v>
@@ -1725,7 +1725,7 @@
         <v>-1.158454103613638</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.2054598739848035</v>
+        <v>0.2054598739847702</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>15.90193590733204</v>
@@ -1734,7 +1734,7 @@
         <v>2.283476486276748</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>8.416115498351761</v>
+        <v>8.416115498351772</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>10.52404664832053</v>
+        <v>9.220853855782465</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.648829128630311</v>
+        <v>-2.706498074730808</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9.086983780710314</v>
+        <v>9.309723266993416</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5.350003646088099</v>
+        <v>6.006080837887003</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.676078805152574</v>
+        <v>-9.090528976354166</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.957658353719238</v>
+        <v>-6.971659190805492</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>10.26120573306805</v>
+        <v>10.41479184322207</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.806078440418696</v>
+        <v>-3.617288309079703</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.755187444269229</v>
+        <v>2.85698811883548</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27.22776749873984</v>
+        <v>26.78540166610181</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.16892332318545</v>
+        <v>13.80996680144296</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24.87039963750597</v>
+        <v>25.31126898924204</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.66919835457413</v>
+        <v>21.14335560740115</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.281994546074896</v>
+        <v>7.446990316313268</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.966185233543165</v>
+        <v>7.509264349652342</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>21.99246135332138</v>
+        <v>21.69617577495172</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.125582709647514</v>
+        <v>8.580412467753447</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>13.52263234444763</v>
+        <v>13.81833550476378</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.141698734859297</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.4218290131468765</v>
+        <v>0.4218290131468768</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2077750623954928</v>
@@ -1830,7 +1830,7 @@
         <v>-0.0179286434997289</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003179769334565981</v>
+        <v>0.003179769334565465</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3018943231218616</v>
@@ -1839,7 +1839,7 @@
         <v>0.04335123674290201</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1597778727380492</v>
+        <v>0.1597778727380494</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2357357106703497</v>
+        <v>0.2110230909343495</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.08060002459956075</v>
+        <v>-0.05903999919347788</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2062694208136291</v>
+        <v>0.2102289968552763</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.08114343449634166</v>
+        <v>0.08563927537977332</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1394508940434598</v>
+        <v>-0.133569155530279</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1011884450806785</v>
+        <v>-0.1016108033009079</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1802597678788854</v>
+        <v>0.1862451684645763</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.06760421851731586</v>
+        <v>-0.0637378460445291</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.05078665522009406</v>
+        <v>0.04972355570292324</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.7790148034273149</v>
+        <v>0.7448146772986884</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3850461742272624</v>
+        <v>0.3881242682021823</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7141391958650346</v>
+        <v>0.7176171769375663</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3413614297811355</v>
+        <v>0.3505610286146444</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1181983756282991</v>
+        <v>0.1225373769925867</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1341737928950035</v>
+        <v>0.1259532759187106</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4395913588802985</v>
+        <v>0.4402174210487768</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1613552182469723</v>
+        <v>0.1757640016028646</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2744910175136789</v>
+        <v>0.281527288346945</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>1.243299345314286</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>13.3810222899112</v>
+        <v>13.38102228991119</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>12.80747144745878</v>
@@ -1948,7 +1948,7 @@
         <v>3.968325812803081</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>17.81617726716356</v>
+        <v>17.81617726716359</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.62748301357203</v>
+        <v>7.333614486847713</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.227690907962629</v>
+        <v>1.088783553298895</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16.8151743274727</v>
+        <v>15.40948510487004</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6.494344224625586</v>
+        <v>6.668408223884182</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.923010237431528</v>
+        <v>-4.442098140176625</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.606849901770635</v>
+        <v>8.451284985181017</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.561487527775082</v>
+        <v>8.698202177685364</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.07195532281612736</v>
+        <v>0.379492088418463</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.80574159495715</v>
+        <v>13.56348280827543</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>19.00953875792305</v>
+        <v>18.79795063736181</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.3436413368918</v>
+        <v>12.49148281043201</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>27.79459813360473</v>
+        <v>27.8039634913993</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>17.53548092142136</v>
+        <v>17.33793549666802</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.173218655259143</v>
+        <v>6.721853487254818</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.0098253196486</v>
+        <v>18.63093445477697</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>16.50054779910324</v>
+        <v>16.79817573988874</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>7.796774242395195</v>
+        <v>8.295545799928247</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>21.70230109742258</v>
+        <v>21.52762200497145</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.02233693761948321</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2404015262302789</v>
+        <v>0.2404015262302787</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2704707030879506</v>
@@ -2053,7 +2053,7 @@
         <v>0.08380388565175184</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3762455385169267</v>
+        <v>0.3762455385169272</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1829907298583125</v>
+        <v>0.1698998577517593</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.02849517006370325</v>
+        <v>0.02639190533925986</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4042227752190364</v>
+        <v>0.3668626151804475</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1128836691713745</v>
+        <v>0.1144931970194593</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.0683228681563835</v>
+        <v>-0.07495427954692316</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1469703530432178</v>
+        <v>0.1427990190040349</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1713030317863067</v>
+        <v>0.1768206170847889</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.001203455800480493</v>
+        <v>0.007363136898081745</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2759311875036572</v>
+        <v>0.2736519239282932</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.529246500851025</v>
+        <v>0.5178002505970909</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3396827439471618</v>
+        <v>0.3438200697862797</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.780687784693229</v>
+        <v>0.7744149565197902</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3351245789874229</v>
+        <v>0.3284337652254621</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1367712903260509</v>
+        <v>0.1264720168950232</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3676699287949817</v>
+        <v>0.3552490660422684</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3623638988096188</v>
+        <v>0.3728101760826761</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1746374974972958</v>
+        <v>0.1846956884392212</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4804385425131097</v>
+        <v>0.47741877449007</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.09219268306598</v>
+        <v>-8.572198358954024</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-1.445302612515047</v>
+        <v>-1.633927350395072</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.23240620805767</v>
+        <v>-11.74914922420783</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.072391922670758</v>
+        <v>-2.599611879657835</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.860145307144272</v>
+        <v>2.782602155600331</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-11.07168367508918</v>
+        <v>-10.69834688899052</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.17305139902493</v>
+        <v>-4.119181538882012</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.334329671813488</v>
+        <v>2.114359926519534</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-10.10995536702226</v>
+        <v>-9.940017413061982</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.109949619354131</v>
+        <v>2.256338188686608</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>9.302811313524426</v>
+        <v>9.340993293604491</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.187071263010916</v>
+        <v>-1.782119126588225</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.290432028733777</v>
+        <v>7.55307777492419</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>11.89442182164533</v>
+        <v>12.24521305894264</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.662223625813591</v>
+        <v>-1.022843384350049</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.351391433675996</v>
+        <v>3.407357381514088</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>9.428663699262261</v>
+        <v>9.424547911001039</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-2.644183202048439</v>
+        <v>-3.213287689146564</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.17333005243513</v>
+        <v>-0.1831223543714041</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.02989348675605009</v>
+        <v>-0.03335729990874346</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2615150565047607</v>
+        <v>-0.2501484527520043</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.05180003393284976</v>
+        <v>-0.04391816143424299</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.02969853010580366</v>
+        <v>0.04787873562319538</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.1856657692465113</v>
+        <v>-0.1822445217003462</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.0787887935111032</v>
+        <v>-0.07667024967982493</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.04341177959153461</v>
+        <v>0.03973323851823426</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1904990447765309</v>
+        <v>-0.1924359520560191</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.04833842871346283</v>
+        <v>0.05287276617911856</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2228148684290372</v>
+        <v>0.2288173340367557</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.05253249825809021</v>
+        <v>-0.04158985233964082</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1353444365686412</v>
+        <v>0.1415757905621574</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.2188314405645131</v>
+        <v>0.2292500714611546</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.03103460021539779</v>
+        <v>-0.02028187807495392</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.06965183650990038</v>
+        <v>0.06988695763130486</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1923809629328909</v>
+        <v>0.1916607323232193</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.05458937990245068</v>
+        <v>-0.06672900597714992</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>7.500101489645679</v>
+        <v>7.329105624392446</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>6.834626463519265</v>
+        <v>6.894355379805331</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>9.073178799686099</v>
+        <v>9.160985579409846</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>9.362120515709845</v>
+        <v>9.231536111649405</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>4.230333492444148</v>
+        <v>4.076273367638859</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.558055826741622</v>
+        <v>2.560327246027594</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>8.994865906488421</v>
+        <v>8.951571583128752</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>5.998266010576126</v>
+        <v>5.896313682113565</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6.477634912541996</v>
+        <v>6.444267469888326</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12.48714151628475</v>
+        <v>12.09512740543475</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>11.57142669428988</v>
+        <v>11.69503825749717</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>14.19416873720078</v>
+        <v>14.39131693830822</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>13.8490073335992</v>
+        <v>13.8916077099536</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.846391886908876</v>
+        <v>8.65520082676662</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.075966371849114</v>
+        <v>6.927405833371093</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>12.45105357475519</v>
+        <v>12.51590819142491</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>9.490249214621878</v>
+        <v>9.609412364471121</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>9.904982485028128</v>
+        <v>9.936114870956787</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1786188981653326</v>
+        <v>0.176571500498674</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.164618513874365</v>
+        <v>0.1666889776798483</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2154152624719787</v>
+        <v>0.2214905069617581</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1565484266171998</v>
+        <v>0.1548792697059758</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.06998175387042661</v>
+        <v>0.0678323869914399</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.04286586841082676</v>
+        <v>0.04236321552080114</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1773254834147076</v>
+        <v>0.1767674634364037</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1182715747557283</v>
+        <v>0.1161247941105307</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1280374000778038</v>
+        <v>0.1269209048511147</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3195526898118533</v>
+        <v>0.3094861344521156</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2954381472803777</v>
+        <v>0.2986005736496697</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.358961707463241</v>
+        <v>0.3626303850690663</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2447394494714573</v>
+        <v>0.241922525890518</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1540299236318339</v>
+        <v>0.1503901239504668</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1226157926884951</v>
+        <v>0.1212309180102659</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.256063363303686</v>
+        <v>0.2560936754475718</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1937732740728787</v>
+        <v>0.1968636432203328</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.2028034841343971</v>
+        <v>0.203983840899566</v>
       </c>
     </row>
     <row r="58">
